--- a/tables/ASEG_significant regions.xlsx
+++ b/tables/ASEG_significant regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UoL\Brain_Imaging\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C392DD8-2737-4665-B98C-E8B1BCAEDBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0BF19C-9703-431B-986A-A58AF9F771E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="68">
   <si>
     <t>No MASK</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>12156  ctx rh S interm prim Jensen</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>intercept</t>
   </si>
 </sst>
 </file>
@@ -563,19 +569,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:D125"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -586,13 +594,19 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -603,10 +617,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.8456726730655033E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.845672673065291E-2</v>
+      </c>
+      <c r="E4">
+        <v>-2.8486093869045822E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.99950038348813275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13</v>
       </c>
@@ -617,10 +637,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.203713066003038E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.2037130660030813E-2</v>
+      </c>
+      <c r="E5">
+        <v>-2.800528736592612E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.0028416656981087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13</v>
       </c>
@@ -631,10 +657,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>4.9601468442368041E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.9601468442369491E-2</v>
+      </c>
+      <c r="E6">
+        <v>-1.3423325398662378E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.0000088637112414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14</v>
       </c>
@@ -645,10 +677,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1.0626358559808216E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0626358559807866E-2</v>
+      </c>
+      <c r="E7">
+        <v>-3.5853094182083448E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.0043523746478871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>18</v>
       </c>
@@ -659,10 +697,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2.3571473280998116E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3571473280997967E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.0344612849386549E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.99682698384038693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18</v>
       </c>
@@ -673,10 +717,16 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>3.0656739660612393E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0656739660612251E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.1558994610221826E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.99738933127524454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>23</v>
       </c>
@@ -687,10 +737,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>7.0803701009977873E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.0803701009973779E-3</v>
+      </c>
+      <c r="E10">
+        <v>-4.612203312166838E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.0026678644161429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -701,10 +757,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>1.7588133852487801E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.758813385248776E-2</v>
+      </c>
+      <c r="E11">
+        <v>-1.8863512754485482E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.99871419113838955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>27</v>
       </c>
@@ -715,10 +777,16 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>3.2074168872911661E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2074168872911579E-3</v>
+      </c>
+      <c r="E12">
+        <v>-7.7984944231579171E-3</v>
+      </c>
+      <c r="F12">
+        <v>1.0083550597640516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>27</v>
       </c>
@@ -729,10 +797,16 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>5.7514453971762173E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.7514453971760455E-3</v>
+      </c>
+      <c r="E13">
+        <v>-6.3335016281833066E-3</v>
+      </c>
+      <c r="F13">
+        <v>1.0061393800218676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>27</v>
       </c>
@@ -743,10 +817,16 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>8.7782934584065154E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.7782934584061875E-3</v>
+      </c>
+      <c r="E14">
+        <v>-5.0598288900653779E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.003958033152953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28</v>
       </c>
@@ -757,10 +837,16 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.5332431374924507E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5332431374924091E-2</v>
+      </c>
+      <c r="E15">
+        <v>6.9994080830689334E-4</v>
+      </c>
+      <c r="F15">
+        <v>0.99795235201277366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28</v>
       </c>
@@ -771,10 +857,16 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>3.5981635288281508E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.5981635288279155E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.5311862304534891E-3</v>
+      </c>
+      <c r="F16">
+        <v>0.99581672198517601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>29</v>
       </c>
@@ -785,10 +877,16 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>3.863247774046575E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.8632477740468296E-2</v>
+      </c>
+      <c r="E17">
+        <v>7.1544345593153023E-4</v>
+      </c>
+      <c r="F17">
+        <v>0.99743898147925703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>29</v>
       </c>
@@ -799,10 +897,16 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3.9776884132730242E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.9776884132730166E-2</v>
+      </c>
+      <c r="E18">
+        <v>-2.8421481869944301E-4</v>
+      </c>
+      <c r="F18">
+        <v>0.99617317621048884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>30</v>
       </c>
@@ -813,10 +917,16 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>7.0034541151591644E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.0034541151589892E-3</v>
+      </c>
+      <c r="E19">
+        <v>-3.8933175609446636E-4</v>
+      </c>
+      <c r="F19">
+        <v>0.9981051925848573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>30</v>
       </c>
@@ -827,10 +937,16 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>1.599457592752301E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5994575927523322E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.5646622148531488E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.99374377670062242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -843,8 +959,14 @@
       <c r="D21">
         <v>4.1826385805691452E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>5.1373735094775519E-3</v>
+      </c>
+      <c r="F21">
+        <v>0.98977526027572216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>31</v>
       </c>
@@ -855,10 +977,16 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1.5290005840664938E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5290005840665762E-2</v>
+      </c>
+      <c r="E22">
+        <v>-6.9619119159642306E-4</v>
+      </c>
+      <c r="F22">
+        <v>0.99896945963186934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31</v>
       </c>
@@ -869,10 +997,16 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>1.7510635492321156E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7510635492321243E-2</v>
+      </c>
+      <c r="E23">
+        <v>-1.0594781436963744E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.0091456044148854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>32</v>
       </c>
@@ -883,10 +1017,16 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1.318332715375569E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3183327153755552E-2</v>
+      </c>
+      <c r="E24">
+        <v>-5.7153239267527045E-3</v>
+      </c>
+      <c r="F24">
+        <v>1.0066630332203106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>32</v>
       </c>
@@ -897,10 +1037,16 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>1.1122878603262316E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1122878603261803E-2</v>
+      </c>
+      <c r="E25">
+        <v>-3.4512119856764932E-3</v>
+      </c>
+      <c r="F25">
+        <v>1.0031683568026082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>32</v>
       </c>
@@ -911,10 +1057,16 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>3.8797490687500456E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.8797490687499797E-2</v>
+      </c>
+      <c r="E26">
+        <v>-3.5210696021444037E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.0026360774560439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>33</v>
       </c>
@@ -925,10 +1077,16 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>4.9041803826660055E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.9041803826660235E-2</v>
+      </c>
+      <c r="E27">
+        <v>-3.4361140316141233E-3</v>
+      </c>
+      <c r="F27">
+        <v>1.0016764988197255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>37</v>
       </c>
@@ -939,10 +1097,16 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>3.146415578925741E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1464155789256598E-2</v>
+      </c>
+      <c r="E28">
+        <v>-3.9868583058357077E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.0053980401722076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>40</v>
       </c>
@@ -953,10 +1117,16 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>3.0707775369209846E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0707775369210436E-2</v>
+      </c>
+      <c r="E29">
+        <v>-1.5637369492324138E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.0211447008101771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>43</v>
       </c>
@@ -967,10 +1137,16 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>2.5470352497403901E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5470352497405344E-2</v>
+      </c>
+      <c r="E30">
+        <v>-1.4785630058417995E-3</v>
+      </c>
+      <c r="F30">
+        <v>1.0001471432991695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>45</v>
       </c>
@@ -981,10 +1157,16 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>3.0790672422551096E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0790672422550909E-2</v>
+      </c>
+      <c r="E31">
+        <v>-2.0594781106827702E-2</v>
+      </c>
+      <c r="F31">
+        <v>1.0276343344285697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>47</v>
       </c>
@@ -995,10 +1177,16 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>4.700312314483867E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.7003123144844318E-2</v>
+      </c>
+      <c r="E32">
+        <v>-6.2314428497736163E-3</v>
+      </c>
+      <c r="F32">
+        <v>1.0078308322798344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>47</v>
       </c>
@@ -1009,10 +1197,16 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>2.654881352386973E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.6548813523869345E-2</v>
+      </c>
+      <c r="E33">
+        <v>-5.3805036035011189E-3</v>
+      </c>
+      <c r="F33">
+        <v>1.0068336807485534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>47</v>
       </c>
@@ -1023,10 +1217,16 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>2.4072765294229498E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.407276529422905E-2</v>
+      </c>
+      <c r="E34">
+        <v>-5.1772360312427801E-3</v>
+      </c>
+      <c r="F34">
+        <v>1.0063675618786994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>60</v>
       </c>
@@ -1037,10 +1237,16 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3.1109927031272716E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1109927031272428E-2</v>
+      </c>
+      <c r="E35">
+        <v>-1.0067890486704415E-3</v>
+      </c>
+      <c r="F35">
+        <v>1.0000672133239115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>60</v>
       </c>
@@ -1051,10 +1257,16 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <v>3.9240073141379811E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.9240073141379277E-2</v>
+      </c>
+      <c r="E36">
+        <v>4.1545932835246015E-4</v>
+      </c>
+      <c r="F36">
+        <v>0.9979280163073061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>61</v>
       </c>
@@ -1065,10 +1277,16 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>2.1510825992304191E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1510825992302578E-2</v>
+      </c>
+      <c r="E37">
+        <v>-2.3646603130529197E-3</v>
+      </c>
+      <c r="F37">
+        <v>1.0030333345116256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>65</v>
       </c>
@@ -1079,10 +1297,16 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>3.7906020345231141E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.7906020345230648E-2</v>
+      </c>
+      <c r="E38">
+        <v>-1.1478530144038459E-2</v>
+      </c>
+      <c r="F38">
+        <v>1.0166755003068941</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>65</v>
       </c>
@@ -1093,10 +1317,16 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>3.684309403831177E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.6843094038311444E-2</v>
+      </c>
+      <c r="E39">
+        <v>-1.0199663876224148E-2</v>
+      </c>
+      <c r="F39">
+        <v>1.0094447604197629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>92</v>
       </c>
@@ -1107,10 +1337,16 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>1.3728512010499143E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3728512010499327E-2</v>
+      </c>
+      <c r="E40">
+        <v>-5.1520868633402163E-3</v>
+      </c>
+      <c r="F40">
+        <v>1.0069656332784747</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>92</v>
       </c>
@@ -1121,10 +1357,16 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>1.8880234975740652E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.8880234975737894E-3</v>
+      </c>
+      <c r="E41">
+        <v>-2.9719778046803048E-3</v>
+      </c>
+      <c r="F41">
+        <v>1.0031037382234438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>97</v>
       </c>
@@ -1135,10 +1377,16 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>1.1400401632967641E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1400401632968203E-2</v>
+      </c>
+      <c r="E42">
+        <v>-6.9019749168586601E-3</v>
+      </c>
+      <c r="F42">
+        <v>1.009391556280258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>103</v>
       </c>
@@ -1149,10 +1397,16 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>2.9899273905404915E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.9899273905404432E-2</v>
+      </c>
+      <c r="E43">
+        <v>-5.0795230032732088E-3</v>
+      </c>
+      <c r="F43">
+        <v>1.0058018896351293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>104</v>
       </c>
@@ -1163,10 +1417,16 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>2.6305048872134048E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.630504887213325E-3</v>
+      </c>
+      <c r="E44">
+        <v>-4.1283203718872723E-3</v>
+      </c>
+      <c r="F44">
+        <v>1.0047164469902796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>104</v>
       </c>
@@ -1177,10 +1437,16 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>1.4613342572991849E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4613342572992365E-3</v>
+      </c>
+      <c r="E45">
+        <v>-5.3401221971810841E-3</v>
+      </c>
+      <c r="F45">
+        <v>1.006537068472974</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>104</v>
       </c>
@@ -1191,10 +1457,16 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>3.5065974977908825E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.5065974977909627E-3</v>
+      </c>
+      <c r="E46">
+        <v>-6.0469082001001892E-3</v>
+      </c>
+      <c r="F46">
+        <v>1.0076526785813877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>107</v>
       </c>
@@ -1205,10 +1477,16 @@
         <v>3</v>
       </c>
       <c r="D47">
-        <v>1.9052033471389909E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9052033471389857E-2</v>
+      </c>
+      <c r="E47">
+        <v>-1.946786225821006E-2</v>
+      </c>
+      <c r="F47">
+        <v>1.0285889870603679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>111</v>
       </c>
@@ -1219,10 +1497,16 @@
         <v>3</v>
       </c>
       <c r="D48">
-        <v>3.8927950914530385E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.8927950914529698E-2</v>
+      </c>
+      <c r="E48">
+        <v>-1.1586007835389826E-2</v>
+      </c>
+      <c r="F48">
+        <v>1.0146746542828808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>121</v>
       </c>
@@ -1233,10 +1517,16 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>2.1031914668701555E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1031914668701128E-2</v>
+      </c>
+      <c r="E49">
+        <v>-1.7366800980975209E-2</v>
+      </c>
+      <c r="F49">
+        <v>1.0240067546753322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>123</v>
       </c>
@@ -1247,10 +1537,16 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>4.6305611975687756E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.6305611975687853E-2</v>
+      </c>
+      <c r="E50">
+        <v>-1.0626517551304542E-2</v>
+      </c>
+      <c r="F50">
+        <v>1.0151320702051843</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>123</v>
       </c>
@@ -1261,10 +1557,16 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>3.7469345900979258E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.746934590097873E-2</v>
+      </c>
+      <c r="E51">
+        <v>-1.0683674338279808E-2</v>
+      </c>
+      <c r="F51">
+        <v>1.0149756341618839</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>128</v>
       </c>
@@ -1275,10 +1577,16 @@
         <v>3</v>
       </c>
       <c r="D52">
-        <v>2.359456612471297E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3594566124713078E-2</v>
+      </c>
+      <c r="E52">
+        <v>-4.9606346399592438E-3</v>
+      </c>
+      <c r="F52">
+        <v>1.005072005015613</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>130</v>
       </c>
@@ -1289,10 +1597,16 @@
         <v>3</v>
       </c>
       <c r="D53">
-        <v>4.3267448714099793E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3267448714099946E-2</v>
+      </c>
+      <c r="E53">
+        <v>-7.9798995109915533E-3</v>
+      </c>
+      <c r="F53">
+        <v>1.0064309619066423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>132</v>
       </c>
@@ -1303,10 +1617,16 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>1.4074454091855091E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4074454091854873E-2</v>
+      </c>
+      <c r="E54">
+        <v>-1.6092361599980426E-2</v>
+      </c>
+      <c r="F54">
+        <v>1.0176836430085634</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>133</v>
       </c>
@@ -1317,10 +1637,16 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>3.7755420607569055E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.7755420607567897E-2</v>
+      </c>
+      <c r="E55">
+        <v>-1.0549188607008039E-2</v>
+      </c>
+      <c r="F55">
+        <v>1.0150180497118153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>133</v>
       </c>
@@ -1331,10 +1657,16 @@
         <v>4</v>
       </c>
       <c r="D56">
-        <v>2.5920678715601747E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5920678715601442E-2</v>
+      </c>
+      <c r="E56">
+        <v>-1.0355861333888557E-2</v>
+      </c>
+      <c r="F56">
+        <v>1.0147348512172136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>137</v>
       </c>
@@ -1345,10 +1677,16 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>2.9212250474886025E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.9212250474885591E-2</v>
+      </c>
+      <c r="E57">
+        <v>3.212612563367002E-3</v>
+      </c>
+      <c r="F57">
+        <v>0.99773763507592372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>137</v>
       </c>
@@ -1359,10 +1697,16 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <v>2.9276138375648013E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.9276138375649709E-2</v>
+      </c>
+      <c r="E58">
+        <v>2.3937374756140429E-3</v>
+      </c>
+      <c r="F58">
+        <v>0.99819190517507317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>141</v>
       </c>
@@ -1373,10 +1717,16 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>1.8279121397832172E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.8279121397832217E-2</v>
+      </c>
+      <c r="E59">
+        <v>-1.6557630593473021E-2</v>
+      </c>
+      <c r="F59">
+        <v>1.0198671609647407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>146</v>
       </c>
@@ -1387,10 +1737,16 @@
         <v>3</v>
       </c>
       <c r="D60">
-        <v>3.6223574394037568E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.6223574394035986E-2</v>
+      </c>
+      <c r="E60">
+        <v>-4.0511440177182605E-3</v>
+      </c>
+      <c r="F60">
+        <v>1.003973781523126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>150</v>
       </c>
@@ -1401,10 +1757,16 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <v>3.6154107106508009E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.6154107106509105E-2</v>
+      </c>
+      <c r="E61">
+        <v>-1.0206561160509718E-3</v>
+      </c>
+      <c r="F61">
+        <v>1.0002750765655841</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>150</v>
       </c>
@@ -1415,10 +1777,16 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>2.7077536563141203E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.707753656314137E-2</v>
+      </c>
+      <c r="E62">
+        <v>-5.7703887751201855E-4</v>
+      </c>
+      <c r="F62">
+        <v>0.9994329907249323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>157</v>
       </c>
@@ -1429,10 +1797,16 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>3.8205280349885379E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.8205280349884692E-2</v>
+      </c>
+      <c r="E63">
+        <v>-3.3430182599636024E-3</v>
+      </c>
+      <c r="F63">
+        <v>1.0045658894840419</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>158</v>
       </c>
@@ -1443,10 +1817,16 @@
         <v>2</v>
       </c>
       <c r="D64">
-        <v>3.0433372464093895E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0433372464094079E-2</v>
+      </c>
+      <c r="E64">
+        <v>-3.3204711170326472E-3</v>
+      </c>
+      <c r="F64">
+        <v>1.0039384346870686</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>158</v>
       </c>
@@ -1457,10 +1837,16 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>3.6706874298890323E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.6706874298889781E-2</v>
+      </c>
+      <c r="E65">
+        <v>-1.9934586599720258E-3</v>
+      </c>
+      <c r="F65">
+        <v>1.001687555051469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>161</v>
       </c>
@@ -1471,10 +1857,16 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>3.6196297497553251E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.6196297497549268E-2</v>
+      </c>
+      <c r="E66">
+        <v>-8.1850306983621628E-4</v>
+      </c>
+      <c r="F66">
+        <v>1.0000468709191697</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>165</v>
       </c>
@@ -1485,10 +1877,16 @@
         <v>3</v>
       </c>
       <c r="D67">
-        <v>4.4733216210030791E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.4733216210030485E-2</v>
+      </c>
+      <c r="E67">
+        <v>-1.0961675114625521E-2</v>
+      </c>
+      <c r="F67">
+        <v>1.0182565325381812</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>165</v>
       </c>
@@ -1499,10 +1897,16 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>3.511095885374943E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.5110958853748354E-2</v>
+      </c>
+      <c r="E68">
+        <v>4.3578701664839219E-3</v>
+      </c>
+      <c r="F68">
+        <v>0.99194453773337354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>165</v>
       </c>
@@ -1513,10 +1917,16 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>4.0202736951137762E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.0202736951139968E-2</v>
+      </c>
+      <c r="E69">
+        <v>5.2644175520718773E-3</v>
+      </c>
+      <c r="F69">
+        <v>0.99048418521495252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>177</v>
       </c>
@@ -1527,10 +1937,16 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>1.3751435078253186E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3751435078253885E-2</v>
+      </c>
+      <c r="E70">
+        <v>-2.6430656554523721E-3</v>
+      </c>
+      <c r="F70">
+        <v>1.0031564655126042</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>178</v>
       </c>
@@ -1541,10 +1957,16 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>4.3839467092315664E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3839467092310833E-3</v>
+      </c>
+      <c r="E71">
+        <v>-2.5220492910811429E-3</v>
+      </c>
+      <c r="F71">
+        <v>1.0021062525102686</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>178</v>
       </c>
@@ -1555,10 +1977,16 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <v>3.6782243241697356E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.6782243241697141E-2</v>
+      </c>
+      <c r="E72">
+        <v>-2.1088539884187171E-2</v>
+      </c>
+      <c r="F72">
+        <v>1.0276771535869815</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>178</v>
       </c>
@@ -1569,10 +1997,16 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>1.8870312941691617E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.8870312941692034E-2</v>
+      </c>
+      <c r="E73">
+        <v>-4.2885471882380847E-4</v>
+      </c>
+      <c r="F73">
+        <v>0.99897240720983804</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>183</v>
       </c>
@@ -1583,15 +2017,21 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>2.1917738865238064E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1917738865237468E-2</v>
+      </c>
+      <c r="E74">
+        <v>-3.2372320430779267E-3</v>
+      </c>
+      <c r="F74">
+        <v>1.0033015280575779</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -1602,10 +2042,16 @@
         <v>3</v>
       </c>
       <c r="D77">
-        <v>1.6156147528660632E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6156147528661329E-2</v>
+      </c>
+      <c r="E77">
+        <v>-7.9583158241377063E-4</v>
+      </c>
+      <c r="F77">
+        <v>1.00203318454437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>4</v>
       </c>
@@ -1616,10 +2062,16 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>3.173168409564231E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1731684095643128E-2</v>
+      </c>
+      <c r="E78">
+        <v>-8.2895754910866232E-3</v>
+      </c>
+      <c r="F78">
+        <v>1.0095076736159312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>10</v>
       </c>
@@ -1632,8 +2084,14 @@
       <c r="D79">
         <v>4.3465502216480462E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>-0.18050168120159665</v>
+      </c>
+      <c r="F79">
+        <v>1.1337785054734213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>10</v>
       </c>
@@ -1646,8 +2104,14 @@
       <c r="D80">
         <v>4.3587390437551311E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>-0.17954078343334345</v>
+      </c>
+      <c r="F80">
+        <v>1.1311319171528689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>10</v>
       </c>
@@ -1660,8 +2124,14 @@
       <c r="D81">
         <v>4.3812835964463857E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>-0.17896336984899111</v>
+      </c>
+      <c r="F81">
+        <v>1.1289742357327415</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>13</v>
       </c>
@@ -1672,10 +2142,16 @@
         <v>2</v>
       </c>
       <c r="D82">
-        <v>2.5746889752011524E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5746889752010987E-2</v>
+      </c>
+      <c r="E82">
+        <v>-3.62142144173234E-3</v>
+      </c>
+      <c r="F82">
+        <v>1.0026467700162078</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>13</v>
       </c>
@@ -1686,10 +2162,16 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>2.6781310233896707E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.6781310233897234E-2</v>
+      </c>
+      <c r="E83">
+        <v>-6.0933056305510569E-3</v>
+      </c>
+      <c r="F83">
+        <v>1.0063691551279081</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>17</v>
       </c>
@@ -1700,10 +2182,16 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>3.8628859334324167E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.8628859334323112E-2</v>
+      </c>
+      <c r="E84">
+        <v>2.9418326614302436E-3</v>
+      </c>
+      <c r="F84">
+        <v>0.99229653973162057</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>22</v>
       </c>
@@ -1714,10 +2202,16 @@
         <v>3</v>
       </c>
       <c r="D85">
-        <v>3.733599631457156E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.7335996314571969E-2</v>
+      </c>
+      <c r="E85">
+        <v>7.9601948696847152E-3</v>
+      </c>
+      <c r="F85">
+        <v>0.98732503934194638</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>27</v>
       </c>
@@ -1728,10 +2222,16 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>4.8905703712466778E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.8905703712466952E-3</v>
+      </c>
+      <c r="E86">
+        <v>-1.6762738273554786E-2</v>
+      </c>
+      <c r="F86">
+        <v>1.0168625471291404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>27</v>
       </c>
@@ -1742,10 +2242,16 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>1.8993274185507294E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.8993274185507628E-3</v>
+      </c>
+      <c r="E87">
+        <v>-1.6260335081590752E-2</v>
+      </c>
+      <c r="F87">
+        <v>1.0184510348059614</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>27</v>
       </c>
@@ -1756,10 +2262,16 @@
         <v>4</v>
       </c>
       <c r="D88">
-        <v>1.4764898416162744E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4764898416163034E-3</v>
+      </c>
+      <c r="E88">
+        <v>-1.5239309935864687E-2</v>
+      </c>
+      <c r="F88">
+        <v>1.0192632748784849</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>29</v>
       </c>
@@ -1770,10 +2282,16 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>3.7603462498979549E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.760346249897871E-2</v>
+      </c>
+      <c r="E89">
+        <v>-3.1305881750680322E-3</v>
+      </c>
+      <c r="F89">
+        <v>1.0022574505075719</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>30</v>
       </c>
@@ -1784,10 +2302,16 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>2.4914708071238734E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.491470807123896E-2</v>
+      </c>
+      <c r="E90">
+        <v>1.0906886076096662E-3</v>
+      </c>
+      <c r="F90">
+        <v>0.9959447428010364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>30</v>
       </c>
@@ -1798,10 +2322,16 @@
         <v>2</v>
       </c>
       <c r="D91">
-        <v>2.3148877988372453E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3148877988373425E-3</v>
+      </c>
+      <c r="E91">
+        <v>-5.2934026627861576E-3</v>
+      </c>
+      <c r="F91">
+        <v>1.0049235762831366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>30</v>
       </c>
@@ -1812,10 +2342,16 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>8.6432167441599834E-4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.6432167441603867E-4</v>
+      </c>
+      <c r="E92">
+        <v>-1.1890347010888997E-2</v>
+      </c>
+      <c r="F92">
+        <v>1.0150887259553323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>33</v>
       </c>
@@ -1826,10 +2362,16 @@
         <v>3</v>
       </c>
       <c r="D93">
-        <v>3.1652669273059104E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1652669273059444E-2</v>
+      </c>
+      <c r="E93">
+        <v>-2.8891771638249845E-3</v>
+      </c>
+      <c r="F93">
+        <v>1.0060797128617429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>33</v>
       </c>
@@ -1840,10 +2382,16 @@
         <v>2</v>
       </c>
       <c r="D94">
-        <v>3.348607082510624E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.3486070825105373E-2</v>
+      </c>
+      <c r="E94">
+        <v>-3.1727217796296186E-3</v>
+      </c>
+      <c r="F94">
+        <v>1.001313656265983</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>33</v>
       </c>
@@ -1854,10 +2402,16 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>1.6782835083940649E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6782835083940854E-2</v>
+      </c>
+      <c r="E95">
+        <v>-2.1136392176158976E-3</v>
+      </c>
+      <c r="F95">
+        <v>0.99803903630841051</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>35</v>
       </c>
@@ -1868,10 +2422,16 @@
         <v>3</v>
       </c>
       <c r="D96">
-        <v>2.9079474138441121E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.9079474138440805E-2</v>
+      </c>
+      <c r="E96">
+        <v>7.8717287460402345E-3</v>
+      </c>
+      <c r="F96">
+        <v>0.98929398786687606</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>37</v>
       </c>
@@ -1882,10 +2442,16 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>4.2860241406557129E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.2860241406558093E-2</v>
+      </c>
+      <c r="E97">
+        <v>-5.3587785530766563E-3</v>
+      </c>
+      <c r="F97">
+        <v>1.0076411232617473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>37</v>
       </c>
@@ -1896,10 +2462,16 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>1.1630197200811944E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1630197200810474E-2</v>
+      </c>
+      <c r="E98">
+        <v>-4.0998662221719212E-3</v>
+      </c>
+      <c r="F98">
+        <v>1.0052802874895477</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>38</v>
       </c>
@@ -1910,10 +2482,16 @@
         <v>3</v>
       </c>
       <c r="D99">
-        <v>4.0097209443624632E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.0097209443626387E-2</v>
+      </c>
+      <c r="E99">
+        <v>1.5754081469941256E-3</v>
+      </c>
+      <c r="F99">
+        <v>0.99922395834455024</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>94</v>
       </c>
@@ -1926,8 +2504,14 @@
       <c r="D100">
         <v>6.8584953178262558E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>2.3324301483557264</v>
+      </c>
+      <c r="F100">
+        <v>-1.9319320967168125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>94</v>
       </c>
@@ -1938,10 +2522,16 @@
         <v>3</v>
       </c>
       <c r="D101">
-        <v>6.4716171544032079E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.4716171544032123E-3</v>
+      </c>
+      <c r="E101">
+        <v>2.3387031416182151</v>
+      </c>
+      <c r="F101">
+        <v>-1.9447903023013404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>94</v>
       </c>
@@ -1954,8 +2544,14 @@
       <c r="D102">
         <v>7.0813397756870561E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>2.3289348542454777</v>
+      </c>
+      <c r="F102">
+        <v>-1.9247675409190701</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>94</v>
       </c>
@@ -1968,8 +2564,14 @@
       <c r="D103">
         <v>7.3090829165770484E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>2.3254456546938016</v>
+      </c>
+      <c r="F103">
+        <v>-1.9176154775764898</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>107</v>
       </c>
@@ -1980,10 +2582,16 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>6.4734292480544643E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.4734292480545233E-3</v>
+      </c>
+      <c r="E104">
+        <v>-8.286758786854391E-2</v>
+      </c>
+      <c r="F104">
+        <v>1.134292261822057</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>107</v>
       </c>
@@ -1994,10 +2602,16 @@
         <v>3</v>
       </c>
       <c r="D105">
-        <v>3.2574960578111122E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2574960578111427E-2</v>
+      </c>
+      <c r="E105">
+        <v>-5.8334364654910424E-2</v>
+      </c>
+      <c r="F105">
+        <v>1.0938741940162011</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>107</v>
       </c>
@@ -2008,10 +2622,16 @@
         <v>2</v>
       </c>
       <c r="D106">
-        <v>9.2465113525537369E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.2465113525537542E-3</v>
+      </c>
+      <c r="E106">
+        <v>-7.713037710007882E-2</v>
+      </c>
+      <c r="F106">
+        <v>1.125697834046927</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -2022,10 +2642,16 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>1.3871665123101295E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3871665123101149E-2</v>
+      </c>
+      <c r="E107">
+        <v>-7.2602472668413576E-2</v>
+      </c>
+      <c r="F107">
+        <v>1.1187481981209104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>111</v>
       </c>
@@ -2036,10 +2662,16 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>3.0412347325027493E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.041234732502303E-3</v>
+      </c>
+      <c r="E108">
+        <v>-8.6779548525964135E-3</v>
+      </c>
+      <c r="F108">
+        <v>1.011752221829479</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>111</v>
       </c>
@@ -2050,10 +2682,16 @@
         <v>3</v>
       </c>
       <c r="D109">
-        <v>1.7237871878489599E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7237871878488884E-2</v>
+      </c>
+      <c r="E109">
+        <v>-1.4719278405838751E-3</v>
+      </c>
+      <c r="F109">
+        <v>1.0016606597009616</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>112</v>
       </c>
@@ -2064,10 +2702,16 @@
         <v>3</v>
       </c>
       <c r="D110">
-        <v>3.2599411050833041E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2599411050833471E-2</v>
+      </c>
+      <c r="E110">
+        <v>4.5560811499298339E-5</v>
+      </c>
+      <c r="F110">
+        <v>0.99879022597828993</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>116</v>
       </c>
@@ -2078,10 +2722,16 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>2.4761940266358019E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.4761940266355323E-2</v>
+      </c>
+      <c r="E111">
+        <v>-7.1184785223732993E-3</v>
+      </c>
+      <c r="F111">
+        <v>1.0092443656834638</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>116</v>
       </c>
@@ -2092,10 +2742,16 @@
         <v>2</v>
       </c>
       <c r="D112">
-        <v>6.2387926053601439E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.2387926053603729E-3</v>
+      </c>
+      <c r="E112">
+        <v>-5.94566514766729E-3</v>
+      </c>
+      <c r="F112">
+        <v>1.0076662649188417</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>116</v>
       </c>
@@ -2106,10 +2762,16 @@
         <v>4</v>
       </c>
       <c r="D113">
-        <v>7.2652697281682527E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.2652697281687297E-3</v>
+      </c>
+      <c r="E113">
+        <v>-5.6595133611566477E-3</v>
+      </c>
+      <c r="F113">
+        <v>1.0069924860748427</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>134</v>
       </c>
@@ -2120,10 +2782,16 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>3.6231740434000237E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.6231740434000306E-2</v>
+      </c>
+      <c r="E114">
+        <v>2.3855164992449711E-2</v>
+      </c>
+      <c r="F114">
+        <v>0.95424585337977774</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>134</v>
       </c>
@@ -2134,10 +2802,16 @@
         <v>3</v>
       </c>
       <c r="D115">
-        <v>4.4291312737102295E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.4291312737102136E-2</v>
+      </c>
+      <c r="E115">
+        <v>1.330820081155556E-2</v>
+      </c>
+      <c r="F115">
+        <v>0.97207466796220676</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>134</v>
       </c>
@@ -2150,8 +2824,14 @@
       <c r="D116">
         <v>3.0245712882723444E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>2.5274725387502889E-2</v>
+      </c>
+      <c r="F116">
+        <v>0.95112620434715522</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>134</v>
       </c>
@@ -2162,10 +2842,16 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>2.5891472809281207E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5891472809281346E-2</v>
+      </c>
+      <c r="E117">
+        <v>2.7429468563486301E-2</v>
+      </c>
+      <c r="F117">
+        <v>0.94672829282517357</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>145</v>
       </c>
@@ -2178,8 +2864,14 @@
       <c r="D118">
         <v>2.9506601146048476E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>-3.8842159268757108E-2</v>
+      </c>
+      <c r="F118">
+        <v>0.89415446884581862</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>145</v>
       </c>
@@ -2190,10 +2882,16 @@
         <v>3</v>
       </c>
       <c r="D119">
-        <v>3.232021371286703E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2320213712867106E-2</v>
+      </c>
+      <c r="E119">
+        <v>-5.4888133149481676E-2</v>
+      </c>
+      <c r="F119">
+        <v>0.94005430071719731</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>145</v>
       </c>
@@ -2204,10 +2902,16 @@
         <v>2</v>
       </c>
       <c r="D120">
-        <v>2.9165709400553561E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.9165709400553675E-2</v>
+      </c>
+      <c r="E120">
+        <v>-4.3088057731146948E-2</v>
+      </c>
+      <c r="F120">
+        <v>0.91140954747403713</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>145</v>
       </c>
@@ -2218,10 +2922,16 @@
         <v>4</v>
       </c>
       <c r="D121">
-        <v>3.0742158107580585E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.074215810758061E-2</v>
+      </c>
+      <c r="E121">
+        <v>-4.5456645083358338E-2</v>
+      </c>
+      <c r="F121">
+        <v>0.92322715937220179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>167</v>
       </c>
@@ -2234,8 +2944,14 @@
       <c r="D122">
         <v>1.0663791827407391E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <v>-2.8853776786015254E-2</v>
+      </c>
+      <c r="F122">
+        <v>0.99659840058358817</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>167</v>
       </c>
@@ -2246,10 +2962,16 @@
         <v>2</v>
       </c>
       <c r="D123">
-        <v>1.4158775537073153E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4158775537073155E-2</v>
+      </c>
+      <c r="E123">
+        <v>-3.632392052881174E-2</v>
+      </c>
+      <c r="F123">
+        <v>1.0168654481442501</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>167</v>
       </c>
@@ -2262,8 +2984,14 @@
       <c r="D124">
         <v>1.9197391351551397E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <v>-4.3835799887776791E-2</v>
+      </c>
+      <c r="F124">
+        <v>1.0344379389379945</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>172</v>
       </c>
@@ -2274,7 +3002,13 @@
         <v>3</v>
       </c>
       <c r="D125">
-        <v>4.0888350451738067E-2</v>
+        <v>4.0888350451737943E-2</v>
+      </c>
+      <c r="E125">
+        <v>1.708882109221074E-2</v>
+      </c>
+      <c r="F125">
+        <v>0.98648459445135861</v>
       </c>
     </row>
   </sheetData>
